--- a/Code/Results/Cases/Case_5_84/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_84/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.018743969687403</v>
+        <v>1.043815935548005</v>
       </c>
       <c r="D2">
-        <v>1.03525775719279</v>
+        <v>1.049538552686423</v>
       </c>
       <c r="E2">
-        <v>1.031669210888911</v>
+        <v>1.051145469825808</v>
       </c>
       <c r="F2">
-        <v>1.04022842371075</v>
+        <v>1.060444702202214</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050324979240514</v>
+        <v>1.042099601595074</v>
       </c>
       <c r="J2">
-        <v>1.040378148893619</v>
+        <v>1.048884356127075</v>
       </c>
       <c r="K2">
-        <v>1.046246812830828</v>
+        <v>1.052295331454684</v>
       </c>
       <c r="L2">
-        <v>1.042704293451012</v>
+        <v>1.05389778345932</v>
       </c>
       <c r="M2">
-        <v>1.051154379926156</v>
+        <v>1.063171463885072</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.022625810350558</v>
+        <v>1.044651734251337</v>
       </c>
       <c r="D3">
-        <v>1.038112528932682</v>
+        <v>1.050179079792162</v>
       </c>
       <c r="E3">
-        <v>1.034840092048629</v>
+        <v>1.051877682932877</v>
       </c>
       <c r="F3">
-        <v>1.043621855818595</v>
+        <v>1.061230918130279</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051366531998242</v>
+        <v>1.042279994197489</v>
       </c>
       <c r="J3">
-        <v>1.042518117073461</v>
+        <v>1.049367719817893</v>
       </c>
       <c r="K3">
-        <v>1.048279914915494</v>
+        <v>1.052748568350864</v>
       </c>
       <c r="L3">
-        <v>1.045045780336753</v>
+        <v>1.054442791257497</v>
       </c>
       <c r="M3">
-        <v>1.053725427946151</v>
+        <v>1.063772177760781</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.025093535543662</v>
+        <v>1.045193311793746</v>
       </c>
       <c r="D4">
-        <v>1.039930562037666</v>
+        <v>1.050594204827493</v>
       </c>
       <c r="E4">
-        <v>1.036861461552904</v>
+        <v>1.052352520937679</v>
       </c>
       <c r="F4">
-        <v>1.045784920459886</v>
+        <v>1.061740776097746</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052020847688813</v>
+        <v>1.042395899665548</v>
       </c>
       <c r="J4">
-        <v>1.043876421195846</v>
+        <v>1.04968056718665</v>
       </c>
       <c r="K4">
-        <v>1.049569811326456</v>
+        <v>1.053041814022179</v>
       </c>
       <c r="L4">
-        <v>1.046534460646303</v>
+        <v>1.05479582322324</v>
       </c>
       <c r="M4">
-        <v>1.055360465186333</v>
+        <v>1.064161341732752</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.026120729439497</v>
+        <v>1.045421171120799</v>
       </c>
       <c r="D5">
-        <v>1.04068805521642</v>
+        <v>1.05076887980069</v>
       </c>
       <c r="E5">
-        <v>1.037704171943196</v>
+        <v>1.052552391564493</v>
       </c>
       <c r="F5">
-        <v>1.04668666355727</v>
+        <v>1.061955387334943</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052291303805652</v>
+        <v>1.042444429123198</v>
       </c>
       <c r="J5">
-        <v>1.044441287363955</v>
+        <v>1.04981210569602</v>
       </c>
       <c r="K5">
-        <v>1.050106084467628</v>
+        <v>1.053165086200389</v>
       </c>
       <c r="L5">
-        <v>1.04715413824319</v>
+        <v>1.05494432621963</v>
       </c>
       <c r="M5">
-        <v>1.056041162343094</v>
+        <v>1.064325055170559</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.026292608423833</v>
+        <v>1.045459440215224</v>
       </c>
       <c r="D6">
-        <v>1.0408148475789</v>
+        <v>1.050798217614563</v>
       </c>
       <c r="E6">
-        <v>1.037845257759185</v>
+        <v>1.05258596525072</v>
       </c>
       <c r="F6">
-        <v>1.04683763028383</v>
+        <v>1.061991437099861</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052336446121822</v>
+        <v>1.042452565847062</v>
       </c>
       <c r="J6">
-        <v>1.044535773756303</v>
+        <v>1.049834192575352</v>
       </c>
       <c r="K6">
-        <v>1.05019577933463</v>
+        <v>1.053185783614536</v>
       </c>
       <c r="L6">
-        <v>1.047257827964206</v>
+        <v>1.054969265662977</v>
       </c>
       <c r="M6">
-        <v>1.056155068074717</v>
+        <v>1.064352549714412</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.025107300775858</v>
+        <v>1.045196355755685</v>
       </c>
       <c r="D7">
-        <v>1.039940710213025</v>
+        <v>1.050596538230818</v>
       </c>
       <c r="E7">
-        <v>1.03687274941699</v>
+        <v>1.052355190643909</v>
       </c>
       <c r="F7">
-        <v>1.045796999205449</v>
+        <v>1.061743642697276</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05202447957464</v>
+        <v>1.042396548894331</v>
       </c>
       <c r="J7">
-        <v>1.043883992987622</v>
+        <v>1.049682324743707</v>
       </c>
       <c r="K7">
-        <v>1.049577000421716</v>
+        <v>1.053043461225412</v>
       </c>
       <c r="L7">
-        <v>1.0465427648181</v>
+        <v>1.054797807182283</v>
       </c>
       <c r="M7">
-        <v>1.05536958668574</v>
+        <v>1.064163528853915</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.020065178714749</v>
+        <v>1.044098239213872</v>
       </c>
       <c r="D8">
-        <v>1.036228697212109</v>
+        <v>1.049754883794085</v>
       </c>
       <c r="E8">
-        <v>1.032747246126006</v>
+        <v>1.051392706671526</v>
       </c>
       <c r="F8">
-        <v>1.041382159955161</v>
+        <v>1.060710173647074</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050681094471654</v>
+        <v>1.042160735583043</v>
       </c>
       <c r="J8">
-        <v>1.041106922434584</v>
+        <v>1.049047694019336</v>
       </c>
       <c r="K8">
-        <v>1.04693930948066</v>
+        <v>1.052448510140687</v>
       </c>
       <c r="L8">
-        <v>1.043501178976199</v>
+        <v>1.054081892730561</v>
       </c>
       <c r="M8">
-        <v>1.05202930765962</v>
+        <v>1.063374381295928</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.010827796434633</v>
+        <v>1.042169116813205</v>
       </c>
       <c r="D9">
-        <v>1.029455548765712</v>
+        <v>1.04827692785772</v>
       </c>
       <c r="E9">
-        <v>1.025235119815605</v>
+        <v>1.049704793788198</v>
       </c>
       <c r="F9">
-        <v>1.033341690521165</v>
+        <v>1.058897766640684</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048159546092893</v>
+        <v>1.041738950584611</v>
       </c>
       <c r="J9">
-        <v>1.036003907087721</v>
+        <v>1.047930057482039</v>
       </c>
       <c r="K9">
-        <v>1.042088146606749</v>
+        <v>1.051399970041466</v>
       </c>
       <c r="L9">
-        <v>1.037931625194799</v>
+        <v>1.05282330346788</v>
       </c>
       <c r="M9">
-        <v>1.045916029952142</v>
+        <v>1.061987414684262</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.004410670766663</v>
+        <v>1.040887108618459</v>
       </c>
       <c r="D10">
-        <v>1.024771605947293</v>
+        <v>1.047295196450145</v>
       </c>
       <c r="E10">
-        <v>1.020049947008387</v>
+        <v>1.048585086532085</v>
       </c>
       <c r="F10">
-        <v>1.027790679499229</v>
+        <v>1.057695466579441</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046368978823663</v>
+        <v>1.041453601914086</v>
       </c>
       <c r="J10">
-        <v>1.032450379278023</v>
+        <v>1.047185495002341</v>
       </c>
       <c r="K10">
-        <v>1.038707555938581</v>
+        <v>1.050700918160561</v>
       </c>
       <c r="L10">
-        <v>1.034066390025931</v>
+        <v>1.05198631457484</v>
       </c>
       <c r="M10">
-        <v>1.041675661350992</v>
+        <v>1.061065299510577</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.001565385150605</v>
+        <v>1.040332973678515</v>
       </c>
       <c r="D11">
-        <v>1.022700490776859</v>
+        <v>1.046870967050993</v>
       </c>
       <c r="E11">
-        <v>1.017759377668495</v>
+        <v>1.04810158646941</v>
       </c>
       <c r="F11">
-        <v>1.025338192812328</v>
+        <v>1.057176299875375</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045566289839296</v>
+        <v>1.041329065857246</v>
       </c>
       <c r="J11">
-        <v>1.030873186959055</v>
+        <v>1.046863233978084</v>
       </c>
       <c r="K11">
-        <v>1.037206641179578</v>
+        <v>1.05039823249886</v>
       </c>
       <c r="L11">
-        <v>1.032353973536744</v>
+        <v>1.051624399658693</v>
       </c>
       <c r="M11">
-        <v>1.039797581180993</v>
+        <v>1.060666634663244</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.000498037905768</v>
+        <v>1.040127292808014</v>
       </c>
       <c r="D12">
-        <v>1.021924469332938</v>
+        <v>1.046713521522233</v>
       </c>
       <c r="E12">
-        <v>1.016901443484391</v>
+        <v>1.047922196452123</v>
       </c>
       <c r="F12">
-        <v>1.024419563410611</v>
+        <v>1.056983676296423</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045263900028985</v>
+        <v>1.041282661409161</v>
       </c>
       <c r="J12">
-        <v>1.030281334819376</v>
+        <v>1.046743554239386</v>
       </c>
       <c r="K12">
-        <v>1.036643349605147</v>
+        <v>1.050285804244547</v>
       </c>
       <c r="L12">
-        <v>1.03171184727874</v>
+        <v>1.0514900460581</v>
       </c>
       <c r="M12">
-        <v>1.039093414667344</v>
+        <v>1.060518647230811</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.000727469690266</v>
+        <v>1.040171405257562</v>
       </c>
       <c r="D13">
-        <v>1.022091236960794</v>
+        <v>1.046747288111099</v>
       </c>
       <c r="E13">
-        <v>1.017085800241867</v>
+        <v>1.047960666981425</v>
       </c>
       <c r="F13">
-        <v>1.024616964889677</v>
+        <v>1.057024984806472</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04532895740803</v>
+        <v>1.041292621925092</v>
       </c>
       <c r="J13">
-        <v>1.030408565030451</v>
+        <v>1.046769224915461</v>
       </c>
       <c r="K13">
-        <v>1.036764442870982</v>
+        <v>1.050309920342893</v>
       </c>
       <c r="L13">
-        <v>1.031849863662055</v>
+        <v>1.051518861819554</v>
       </c>
       <c r="M13">
-        <v>1.039244762104245</v>
+        <v>1.060550386735953</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.001477374534352</v>
+        <v>1.040315968972892</v>
       </c>
       <c r="D14">
-        <v>1.022636483217656</v>
+        <v>1.046857949847287</v>
       </c>
       <c r="E14">
-        <v>1.017688607494684</v>
+        <v>1.048086753872908</v>
       </c>
       <c r="F14">
-        <v>1.025262416960952</v>
+        <v>1.057160373089741</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045541381348864</v>
+        <v>1.041325233029408</v>
       </c>
       <c r="J14">
-        <v>1.030824388307231</v>
+        <v>1.046853340749402</v>
       </c>
       <c r="K14">
-        <v>1.037160198599378</v>
+        <v>1.050388939081494</v>
       </c>
       <c r="L14">
-        <v>1.032301020191992</v>
+        <v>1.05161329235373</v>
       </c>
       <c r="M14">
-        <v>1.039739510000433</v>
+        <v>1.060654400039322</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.001938012205858</v>
+        <v>1.040405059316461</v>
       </c>
       <c r="D15">
-        <v>1.022971529153907</v>
+        <v>1.046926149765428</v>
       </c>
       <c r="E15">
-        <v>1.018059064903114</v>
+        <v>1.048164467185743</v>
       </c>
       <c r="F15">
-        <v>1.025659075345902</v>
+        <v>1.057243819237105</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045671697675644</v>
+        <v>1.041345306455145</v>
       </c>
       <c r="J15">
-        <v>1.031079786924196</v>
+        <v>1.046905170295058</v>
       </c>
       <c r="K15">
-        <v>1.037403263669666</v>
+        <v>1.050437625531357</v>
       </c>
       <c r="L15">
-        <v>1.032578182479141</v>
+        <v>1.051671484467268</v>
       </c>
       <c r="M15">
-        <v>1.040043462772049</v>
+        <v>1.060718498634638</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.004598059602223</v>
+        <v>1.040923905597172</v>
       </c>
       <c r="D16">
-        <v>1.024908132001385</v>
+        <v>1.047323369585476</v>
       </c>
       <c r="E16">
-        <v>1.020200983670619</v>
+        <v>1.048617203256314</v>
       </c>
       <c r="F16">
-        <v>1.027952386088673</v>
+        <v>1.05772995242521</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.0464216636921</v>
+        <v>1.041461846416619</v>
       </c>
       <c r="J16">
-        <v>1.032554222042641</v>
+        <v>1.047206885462978</v>
       </c>
       <c r="K16">
-        <v>1.038806367320503</v>
+        <v>1.050721006708997</v>
       </c>
       <c r="L16">
-        <v>1.034179201181347</v>
+        <v>1.05201034448781</v>
       </c>
       <c r="M16">
-        <v>1.041799397325975</v>
+        <v>1.061091770732875</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.006248474445647</v>
+        <v>1.041249628643267</v>
       </c>
       <c r="D17">
-        <v>1.02611123278392</v>
+        <v>1.047572768512335</v>
       </c>
       <c r="E17">
-        <v>1.021532202571979</v>
+        <v>1.048901552973093</v>
       </c>
       <c r="F17">
-        <v>1.029377613004162</v>
+        <v>1.058035277205382</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046884686280858</v>
+        <v>1.041534687493848</v>
       </c>
       <c r="J17">
-        <v>1.033468632731177</v>
+        <v>1.047396181740939</v>
       </c>
       <c r="K17">
-        <v>1.039676419518226</v>
+        <v>1.050898767485666</v>
       </c>
       <c r="L17">
-        <v>1.035172941245682</v>
+        <v>1.052223039220848</v>
       </c>
       <c r="M17">
-        <v>1.04288943361933</v>
+        <v>1.061326080896415</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.007204738100435</v>
+        <v>1.041439712114576</v>
       </c>
       <c r="D18">
-        <v>1.02680885702723</v>
+        <v>1.047718322188807</v>
       </c>
       <c r="E18">
-        <v>1.022304325033211</v>
+        <v>1.04906753856152</v>
       </c>
       <c r="F18">
-        <v>1.030204232133971</v>
+        <v>1.05821350650567</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047152128307767</v>
+        <v>1.041577080029232</v>
       </c>
       <c r="J18">
-        <v>1.033998295335476</v>
+        <v>1.047506608417227</v>
       </c>
       <c r="K18">
-        <v>1.04018034184408</v>
+        <v>1.051002453056457</v>
       </c>
       <c r="L18">
-        <v>1.035748851480666</v>
+        <v>1.05234714925331</v>
       </c>
       <c r="M18">
-        <v>1.04352120174618</v>
+        <v>1.061462809476644</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.007529728400047</v>
+        <v>1.041504541678386</v>
       </c>
       <c r="D19">
-        <v>1.027046037202267</v>
+        <v>1.047767966335508</v>
       </c>
       <c r="E19">
-        <v>1.022566869022172</v>
+        <v>1.049124157212141</v>
       </c>
       <c r="F19">
-        <v>1.030485301720934</v>
+        <v>1.058274301521939</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047242876498363</v>
+        <v>1.041591518748027</v>
       </c>
       <c r="J19">
-        <v>1.034178276175885</v>
+        <v>1.047544263283517</v>
       </c>
       <c r="K19">
-        <v>1.040351567987929</v>
+        <v>1.051037807235284</v>
       </c>
       <c r="L19">
-        <v>1.035944597756934</v>
+        <v>1.0523894757954</v>
       </c>
       <c r="M19">
-        <v>1.043735942128193</v>
+        <v>1.0615094404162</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.006072065380245</v>
+        <v>1.041214671831582</v>
       </c>
       <c r="D20">
-        <v>1.02598257990936</v>
+        <v>1.047546001716819</v>
       </c>
       <c r="E20">
-        <v>1.02138982796272</v>
+        <v>1.048871031560173</v>
       </c>
       <c r="F20">
-        <v>1.029225187219035</v>
+        <v>1.058002504402696</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046835281376857</v>
+        <v>1.041526882097811</v>
       </c>
       <c r="J20">
-        <v>1.033370909207282</v>
+        <v>1.04737587064978</v>
       </c>
       <c r="K20">
-        <v>1.039583441327305</v>
+        <v>1.050879695352264</v>
       </c>
       <c r="L20">
-        <v>1.035066708953712</v>
+        <v>1.052200214030665</v>
       </c>
       <c r="M20">
-        <v>1.042772901869115</v>
+        <v>1.061300935474174</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.001256839510893</v>
+        <v>1.040273394419759</v>
       </c>
       <c r="D21">
-        <v>1.022476109418584</v>
+        <v>1.04682535906039</v>
       </c>
       <c r="E21">
-        <v>1.017511294680579</v>
+        <v>1.048049618793948</v>
       </c>
       <c r="F21">
-        <v>1.025072561753648</v>
+        <v>1.05712049857838</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045478945746101</v>
+        <v>1.041315633902107</v>
       </c>
       <c r="J21">
-        <v>1.030702106605858</v>
+        <v>1.046828570104467</v>
       </c>
       <c r="K21">
-        <v>1.037043819854207</v>
+        <v>1.050365669947206</v>
       </c>
       <c r="L21">
-        <v>1.03216833505794</v>
+        <v>1.051585482757133</v>
       </c>
       <c r="M21">
-        <v>1.039594002415364</v>
+        <v>1.060623768092989</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9981684198227745</v>
+        <v>1.03968244192837</v>
       </c>
       <c r="D22">
-        <v>1.02023244708113</v>
+        <v>1.046373028006811</v>
       </c>
       <c r="E22">
-        <v>1.015031382387864</v>
+        <v>1.047534341994153</v>
       </c>
       <c r="F22">
-        <v>1.022417110298274</v>
+        <v>1.05656720914017</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044601592223649</v>
+        <v>1.041181968215301</v>
       </c>
       <c r="J22">
-        <v>1.028989213694103</v>
+        <v>1.046484590560359</v>
       </c>
       <c r="K22">
-        <v>1.03541347537406</v>
+        <v>1.050042497964133</v>
       </c>
       <c r="L22">
-        <v>1.030310832279821</v>
+        <v>1.051199427211426</v>
       </c>
       <c r="M22">
-        <v>1.037557187223477</v>
+        <v>1.060198553353738</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9998115863437415</v>
+        <v>1.039995634330642</v>
       </c>
       <c r="D23">
-        <v>1.021425644846976</v>
+        <v>1.046612744042383</v>
       </c>
       <c r="E23">
-        <v>1.016350052538158</v>
+        <v>1.047807387636666</v>
       </c>
       <c r="F23">
-        <v>1.02382914972821</v>
+        <v>1.056860397944913</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045069066474845</v>
+        <v>1.041252906822861</v>
       </c>
       <c r="J23">
-        <v>1.029900639885084</v>
+        <v>1.046666927830465</v>
       </c>
       <c r="K23">
-        <v>1.036281008922824</v>
+        <v>1.05021381554046</v>
       </c>
       <c r="L23">
-        <v>1.031298947106742</v>
+        <v>1.051404039342437</v>
       </c>
       <c r="M23">
-        <v>1.038640644213197</v>
+        <v>1.060423915280349</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.006151796773346</v>
+        <v>1.041230467017616</v>
       </c>
       <c r="D24">
-        <v>1.026040725331513</v>
+        <v>1.047558096221802</v>
       </c>
       <c r="E24">
-        <v>1.021454174357277</v>
+        <v>1.048884822473928</v>
       </c>
       <c r="F24">
-        <v>1.029294076345776</v>
+        <v>1.058017312593817</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046857613448685</v>
+        <v>1.041530409312178</v>
       </c>
       <c r="J24">
-        <v>1.033415077671864</v>
+        <v>1.047385048316495</v>
       </c>
       <c r="K24">
-        <v>1.039625465169632</v>
+        <v>1.050888313226366</v>
       </c>
       <c r="L24">
-        <v>1.035114722237552</v>
+        <v>1.052210527601054</v>
       </c>
       <c r="M24">
-        <v>1.042825569991582</v>
+        <v>1.061312297424724</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.013259835026823</v>
+        <v>1.042667131082194</v>
       </c>
       <c r="D25">
-        <v>1.031235319773367</v>
+        <v>1.048658393413761</v>
       </c>
       <c r="E25">
-        <v>1.027207322964656</v>
+        <v>1.050140186920194</v>
       </c>
       <c r="F25">
-        <v>1.035452792197735</v>
+        <v>1.05936527385958</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048830291091991</v>
+        <v>1.041848728390912</v>
       </c>
       <c r="J25">
-        <v>1.037349047193173</v>
+        <v>1.048218906175671</v>
       </c>
       <c r="K25">
-        <v>1.043367353377712</v>
+        <v>1.051671053271618</v>
       </c>
       <c r="L25">
-        <v>1.0393974673293</v>
+        <v>1.053148320704818</v>
       </c>
       <c r="M25">
-        <v>1.04752459439627</v>
+        <v>1.062345540366932</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_84/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_84/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.043815935548005</v>
+        <v>1.018743969687403</v>
       </c>
       <c r="D2">
-        <v>1.049538552686423</v>
+        <v>1.035257757192791</v>
       </c>
       <c r="E2">
-        <v>1.051145469825808</v>
+        <v>1.031669210888911</v>
       </c>
       <c r="F2">
-        <v>1.060444702202214</v>
+        <v>1.040228423710751</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042099601595074</v>
+        <v>1.050324979240514</v>
       </c>
       <c r="J2">
-        <v>1.048884356127075</v>
+        <v>1.040378148893619</v>
       </c>
       <c r="K2">
-        <v>1.052295331454684</v>
+        <v>1.046246812830828</v>
       </c>
       <c r="L2">
-        <v>1.05389778345932</v>
+        <v>1.042704293451012</v>
       </c>
       <c r="M2">
-        <v>1.063171463885072</v>
+        <v>1.051154379926156</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.044651734251337</v>
+        <v>1.022625810350559</v>
       </c>
       <c r="D3">
-        <v>1.050179079792162</v>
+        <v>1.038112528932683</v>
       </c>
       <c r="E3">
-        <v>1.051877682932877</v>
+        <v>1.034840092048629</v>
       </c>
       <c r="F3">
-        <v>1.061230918130279</v>
+        <v>1.043621855818595</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042279994197489</v>
+        <v>1.051366531998243</v>
       </c>
       <c r="J3">
-        <v>1.049367719817893</v>
+        <v>1.042518117073461</v>
       </c>
       <c r="K3">
-        <v>1.052748568350864</v>
+        <v>1.048279914915494</v>
       </c>
       <c r="L3">
-        <v>1.054442791257497</v>
+        <v>1.045045780336754</v>
       </c>
       <c r="M3">
-        <v>1.063772177760781</v>
+        <v>1.053725427946151</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045193311793746</v>
+        <v>1.025093535543663</v>
       </c>
       <c r="D4">
-        <v>1.050594204827493</v>
+        <v>1.039930562037667</v>
       </c>
       <c r="E4">
-        <v>1.052352520937679</v>
+        <v>1.036861461552905</v>
       </c>
       <c r="F4">
-        <v>1.061740776097746</v>
+        <v>1.045784920459886</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042395899665548</v>
+        <v>1.052020847688814</v>
       </c>
       <c r="J4">
-        <v>1.04968056718665</v>
+        <v>1.043876421195847</v>
       </c>
       <c r="K4">
-        <v>1.053041814022179</v>
+        <v>1.049569811326456</v>
       </c>
       <c r="L4">
-        <v>1.05479582322324</v>
+        <v>1.046534460646303</v>
       </c>
       <c r="M4">
-        <v>1.064161341732752</v>
+        <v>1.055360465186334</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.045421171120799</v>
+        <v>1.026120729439498</v>
       </c>
       <c r="D5">
-        <v>1.05076887980069</v>
+        <v>1.040688055216421</v>
       </c>
       <c r="E5">
-        <v>1.052552391564493</v>
+        <v>1.037704171943197</v>
       </c>
       <c r="F5">
-        <v>1.061955387334943</v>
+        <v>1.046686663557271</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042444429123198</v>
+        <v>1.052291303805652</v>
       </c>
       <c r="J5">
-        <v>1.04981210569602</v>
+        <v>1.044441287363956</v>
       </c>
       <c r="K5">
-        <v>1.053165086200389</v>
+        <v>1.050106084467629</v>
       </c>
       <c r="L5">
-        <v>1.05494432621963</v>
+        <v>1.047154138243191</v>
       </c>
       <c r="M5">
-        <v>1.064325055170559</v>
+        <v>1.056041162343095</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.045459440215224</v>
+        <v>1.026292608423833</v>
       </c>
       <c r="D6">
-        <v>1.050798217614563</v>
+        <v>1.040814847578901</v>
       </c>
       <c r="E6">
-        <v>1.05258596525072</v>
+        <v>1.037845257759185</v>
       </c>
       <c r="F6">
-        <v>1.061991437099861</v>
+        <v>1.046837630283831</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042452565847062</v>
+        <v>1.052336446121823</v>
       </c>
       <c r="J6">
-        <v>1.049834192575352</v>
+        <v>1.044535773756303</v>
       </c>
       <c r="K6">
-        <v>1.053185783614536</v>
+        <v>1.05019577933463</v>
       </c>
       <c r="L6">
-        <v>1.054969265662977</v>
+        <v>1.047257827964207</v>
       </c>
       <c r="M6">
-        <v>1.064352549714412</v>
+        <v>1.056155068074718</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045196355755685</v>
+        <v>1.025107300775858</v>
       </c>
       <c r="D7">
-        <v>1.050596538230818</v>
+        <v>1.039940710213024</v>
       </c>
       <c r="E7">
-        <v>1.052355190643909</v>
+        <v>1.036872749416989</v>
       </c>
       <c r="F7">
-        <v>1.061743642697276</v>
+        <v>1.045796999205448</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042396548894331</v>
+        <v>1.052024479574639</v>
       </c>
       <c r="J7">
-        <v>1.049682324743707</v>
+        <v>1.043883992987621</v>
       </c>
       <c r="K7">
-        <v>1.053043461225412</v>
+        <v>1.049577000421714</v>
       </c>
       <c r="L7">
-        <v>1.054797807182283</v>
+        <v>1.046542764818098</v>
       </c>
       <c r="M7">
-        <v>1.064163528853915</v>
+        <v>1.055369586685739</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.044098239213872</v>
+        <v>1.020065178714747</v>
       </c>
       <c r="D8">
-        <v>1.049754883794085</v>
+        <v>1.036228697212108</v>
       </c>
       <c r="E8">
-        <v>1.051392706671526</v>
+        <v>1.032747246126006</v>
       </c>
       <c r="F8">
-        <v>1.060710173647074</v>
+        <v>1.04138215995516</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042160735583043</v>
+        <v>1.050681094471653</v>
       </c>
       <c r="J8">
-        <v>1.049047694019336</v>
+        <v>1.041106922434583</v>
       </c>
       <c r="K8">
-        <v>1.052448510140687</v>
+        <v>1.046939309480658</v>
       </c>
       <c r="L8">
-        <v>1.054081892730561</v>
+        <v>1.043501178976198</v>
       </c>
       <c r="M8">
-        <v>1.063374381295928</v>
+        <v>1.052029307659619</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.042169116813205</v>
+        <v>1.010827796434633</v>
       </c>
       <c r="D9">
-        <v>1.04827692785772</v>
+        <v>1.029455548765712</v>
       </c>
       <c r="E9">
-        <v>1.049704793788198</v>
+        <v>1.025235119815606</v>
       </c>
       <c r="F9">
-        <v>1.058897766640684</v>
+        <v>1.033341690521165</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041738950584611</v>
+        <v>1.048159546092893</v>
       </c>
       <c r="J9">
-        <v>1.047930057482039</v>
+        <v>1.036003907087722</v>
       </c>
       <c r="K9">
-        <v>1.051399970041466</v>
+        <v>1.04208814660675</v>
       </c>
       <c r="L9">
-        <v>1.05282330346788</v>
+        <v>1.0379316251948</v>
       </c>
       <c r="M9">
-        <v>1.061987414684262</v>
+        <v>1.045916029952143</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.040887108618459</v>
+        <v>1.004410670766662</v>
       </c>
       <c r="D10">
-        <v>1.047295196450145</v>
+        <v>1.024771605947292</v>
       </c>
       <c r="E10">
-        <v>1.048585086532085</v>
+        <v>1.020049947008387</v>
       </c>
       <c r="F10">
-        <v>1.057695466579441</v>
+        <v>1.027790679499229</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041453601914086</v>
+        <v>1.046368978823663</v>
       </c>
       <c r="J10">
-        <v>1.047185495002341</v>
+        <v>1.032450379278023</v>
       </c>
       <c r="K10">
-        <v>1.050700918160561</v>
+        <v>1.038707555938581</v>
       </c>
       <c r="L10">
-        <v>1.05198631457484</v>
+        <v>1.034066390025931</v>
       </c>
       <c r="M10">
-        <v>1.061065299510577</v>
+        <v>1.041675661350992</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040332973678515</v>
+        <v>1.001565385150606</v>
       </c>
       <c r="D11">
-        <v>1.046870967050993</v>
+        <v>1.02270049077686</v>
       </c>
       <c r="E11">
-        <v>1.04810158646941</v>
+        <v>1.017759377668496</v>
       </c>
       <c r="F11">
-        <v>1.057176299875375</v>
+        <v>1.02533819281233</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041329065857246</v>
+        <v>1.045566289839296</v>
       </c>
       <c r="J11">
-        <v>1.046863233978084</v>
+        <v>1.030873186959056</v>
       </c>
       <c r="K11">
-        <v>1.05039823249886</v>
+        <v>1.03720664117958</v>
       </c>
       <c r="L11">
-        <v>1.051624399658693</v>
+        <v>1.032353973536746</v>
       </c>
       <c r="M11">
-        <v>1.060666634663244</v>
+        <v>1.039797581180995</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040127292808014</v>
+        <v>1.00049803790577</v>
       </c>
       <c r="D12">
-        <v>1.046713521522233</v>
+        <v>1.02192446933294</v>
       </c>
       <c r="E12">
-        <v>1.047922196452123</v>
+        <v>1.016901443484393</v>
       </c>
       <c r="F12">
-        <v>1.056983676296423</v>
+        <v>1.024419563410613</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041282661409161</v>
+        <v>1.045263900028986</v>
       </c>
       <c r="J12">
-        <v>1.046743554239386</v>
+        <v>1.030281334819378</v>
       </c>
       <c r="K12">
-        <v>1.050285804244547</v>
+        <v>1.036643349605148</v>
       </c>
       <c r="L12">
-        <v>1.0514900460581</v>
+        <v>1.031711847278742</v>
       </c>
       <c r="M12">
-        <v>1.060518647230811</v>
+        <v>1.039093414667345</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040171405257562</v>
+        <v>1.000727469690266</v>
       </c>
       <c r="D13">
-        <v>1.046747288111099</v>
+        <v>1.022091236960795</v>
       </c>
       <c r="E13">
-        <v>1.047960666981425</v>
+        <v>1.017085800241867</v>
       </c>
       <c r="F13">
-        <v>1.057024984806472</v>
+        <v>1.024616964889677</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041292621925092</v>
+        <v>1.04532895740803</v>
       </c>
       <c r="J13">
-        <v>1.046769224915461</v>
+        <v>1.030408565030452</v>
       </c>
       <c r="K13">
-        <v>1.050309920342893</v>
+        <v>1.036764442870983</v>
       </c>
       <c r="L13">
-        <v>1.051518861819554</v>
+        <v>1.031849863662055</v>
       </c>
       <c r="M13">
-        <v>1.060550386735953</v>
+        <v>1.039244762104246</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C14">
-        <v>1.040315968972892</v>
+        <v>1.001477374534352</v>
       </c>
       <c r="D14">
-        <v>1.046857949847287</v>
+        <v>1.022636483217656</v>
       </c>
       <c r="E14">
-        <v>1.048086753872908</v>
+        <v>1.017688607494684</v>
       </c>
       <c r="F14">
-        <v>1.057160373089741</v>
+        <v>1.025262416960953</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041325233029408</v>
+        <v>1.045541381348864</v>
       </c>
       <c r="J14">
-        <v>1.046853340749402</v>
+        <v>1.030824388307231</v>
       </c>
       <c r="K14">
-        <v>1.050388939081494</v>
+        <v>1.037160198599379</v>
       </c>
       <c r="L14">
-        <v>1.05161329235373</v>
+        <v>1.032301020191992</v>
       </c>
       <c r="M14">
-        <v>1.060654400039322</v>
+        <v>1.039739510000434</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040405059316461</v>
+        <v>1.001938012205858</v>
       </c>
       <c r="D15">
-        <v>1.046926149765428</v>
+        <v>1.022971529153906</v>
       </c>
       <c r="E15">
-        <v>1.048164467185743</v>
+        <v>1.018059064903114</v>
       </c>
       <c r="F15">
-        <v>1.057243819237105</v>
+        <v>1.025659075345901</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041345306455145</v>
+        <v>1.045671697675644</v>
       </c>
       <c r="J15">
-        <v>1.046905170295058</v>
+        <v>1.031079786924195</v>
       </c>
       <c r="K15">
-        <v>1.050437625531357</v>
+        <v>1.037403263669666</v>
       </c>
       <c r="L15">
-        <v>1.051671484467268</v>
+        <v>1.032578182479141</v>
       </c>
       <c r="M15">
-        <v>1.060718498634638</v>
+        <v>1.040043462772048</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.040923905597172</v>
+        <v>1.004598059602223</v>
       </c>
       <c r="D16">
-        <v>1.047323369585476</v>
+        <v>1.024908132001385</v>
       </c>
       <c r="E16">
-        <v>1.048617203256314</v>
+        <v>1.020200983670619</v>
       </c>
       <c r="F16">
-        <v>1.05772995242521</v>
+        <v>1.027952386088674</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041461846416619</v>
+        <v>1.046421663692101</v>
       </c>
       <c r="J16">
-        <v>1.047206885462978</v>
+        <v>1.032554222042641</v>
       </c>
       <c r="K16">
-        <v>1.050721006708997</v>
+        <v>1.038806367320503</v>
       </c>
       <c r="L16">
-        <v>1.05201034448781</v>
+        <v>1.034179201181347</v>
       </c>
       <c r="M16">
-        <v>1.061091770732875</v>
+        <v>1.041799397325976</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.041249628643267</v>
+        <v>1.006248474445647</v>
       </c>
       <c r="D17">
-        <v>1.047572768512335</v>
+        <v>1.026111232783921</v>
       </c>
       <c r="E17">
-        <v>1.048901552973093</v>
+        <v>1.021532202571979</v>
       </c>
       <c r="F17">
-        <v>1.058035277205382</v>
+        <v>1.029377613004162</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041534687493848</v>
+        <v>1.046884686280858</v>
       </c>
       <c r="J17">
-        <v>1.047396181740939</v>
+        <v>1.033468632731178</v>
       </c>
       <c r="K17">
-        <v>1.050898767485666</v>
+        <v>1.039676419518226</v>
       </c>
       <c r="L17">
-        <v>1.052223039220848</v>
+        <v>1.035172941245682</v>
       </c>
       <c r="M17">
-        <v>1.061326080896415</v>
+        <v>1.04288943361933</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041439712114576</v>
+        <v>1.007204738100436</v>
       </c>
       <c r="D18">
-        <v>1.047718322188807</v>
+        <v>1.02680885702723</v>
       </c>
       <c r="E18">
-        <v>1.04906753856152</v>
+        <v>1.022304325033212</v>
       </c>
       <c r="F18">
-        <v>1.05821350650567</v>
+        <v>1.030204232133972</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041577080029232</v>
+        <v>1.047152128307767</v>
       </c>
       <c r="J18">
-        <v>1.047506608417227</v>
+        <v>1.033998295335477</v>
       </c>
       <c r="K18">
-        <v>1.051002453056457</v>
+        <v>1.040180341844081</v>
       </c>
       <c r="L18">
-        <v>1.05234714925331</v>
+        <v>1.035748851480667</v>
       </c>
       <c r="M18">
-        <v>1.061462809476644</v>
+        <v>1.04352120174618</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.041504541678386</v>
+        <v>1.007529728400048</v>
       </c>
       <c r="D19">
-        <v>1.047767966335508</v>
+        <v>1.027046037202267</v>
       </c>
       <c r="E19">
-        <v>1.049124157212141</v>
+        <v>1.022566869022172</v>
       </c>
       <c r="F19">
-        <v>1.058274301521939</v>
+        <v>1.030485301720934</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041591518748027</v>
+        <v>1.047242876498363</v>
       </c>
       <c r="J19">
-        <v>1.047544263283517</v>
+        <v>1.034178276175885</v>
       </c>
       <c r="K19">
-        <v>1.051037807235284</v>
+        <v>1.040351567987929</v>
       </c>
       <c r="L19">
-        <v>1.0523894757954</v>
+        <v>1.035944597756935</v>
       </c>
       <c r="M19">
-        <v>1.0615094404162</v>
+        <v>1.043735942128193</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.041214671831582</v>
+        <v>1.006072065380246</v>
       </c>
       <c r="D20">
-        <v>1.047546001716819</v>
+        <v>1.025982579909361</v>
       </c>
       <c r="E20">
-        <v>1.048871031560173</v>
+        <v>1.021389827962721</v>
       </c>
       <c r="F20">
-        <v>1.058002504402696</v>
+        <v>1.029225187219036</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041526882097811</v>
+        <v>1.046835281376857</v>
       </c>
       <c r="J20">
-        <v>1.04737587064978</v>
+        <v>1.033370909207283</v>
       </c>
       <c r="K20">
-        <v>1.050879695352264</v>
+        <v>1.039583441327306</v>
       </c>
       <c r="L20">
-        <v>1.052200214030665</v>
+        <v>1.035066708953713</v>
       </c>
       <c r="M20">
-        <v>1.061300935474174</v>
+        <v>1.042772901869116</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040273394419759</v>
+        <v>1.001256839510893</v>
       </c>
       <c r="D21">
-        <v>1.04682535906039</v>
+        <v>1.022476109418584</v>
       </c>
       <c r="E21">
-        <v>1.048049618793948</v>
+        <v>1.017511294680579</v>
       </c>
       <c r="F21">
-        <v>1.05712049857838</v>
+        <v>1.025072561753648</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041315633902107</v>
+        <v>1.045478945746101</v>
       </c>
       <c r="J21">
-        <v>1.046828570104467</v>
+        <v>1.030702106605858</v>
       </c>
       <c r="K21">
-        <v>1.050365669947206</v>
+        <v>1.037043819854207</v>
       </c>
       <c r="L21">
-        <v>1.051585482757133</v>
+        <v>1.03216833505794</v>
       </c>
       <c r="M21">
-        <v>1.060623768092989</v>
+        <v>1.039594002415364</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03968244192837</v>
+        <v>0.9981684198227746</v>
       </c>
       <c r="D22">
-        <v>1.046373028006811</v>
+        <v>1.020232447081131</v>
       </c>
       <c r="E22">
-        <v>1.047534341994153</v>
+        <v>1.015031382387864</v>
       </c>
       <c r="F22">
-        <v>1.05656720914017</v>
+        <v>1.022417110298274</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041181968215301</v>
+        <v>1.04460159222365</v>
       </c>
       <c r="J22">
-        <v>1.046484590560359</v>
+        <v>1.028989213694103</v>
       </c>
       <c r="K22">
-        <v>1.050042497964133</v>
+        <v>1.03541347537406</v>
       </c>
       <c r="L22">
-        <v>1.051199427211426</v>
+        <v>1.030310832279821</v>
       </c>
       <c r="M22">
-        <v>1.060198553353738</v>
+        <v>1.037557187223477</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.039995634330642</v>
+        <v>0.999811586343742</v>
       </c>
       <c r="D23">
-        <v>1.046612744042383</v>
+        <v>1.021425644846976</v>
       </c>
       <c r="E23">
-        <v>1.047807387636666</v>
+        <v>1.016350052538159</v>
       </c>
       <c r="F23">
-        <v>1.056860397944913</v>
+        <v>1.023829149728211</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041252906822861</v>
+        <v>1.045069066474846</v>
       </c>
       <c r="J23">
-        <v>1.046666927830465</v>
+        <v>1.029900639885085</v>
       </c>
       <c r="K23">
-        <v>1.05021381554046</v>
+        <v>1.036281008922825</v>
       </c>
       <c r="L23">
-        <v>1.051404039342437</v>
+        <v>1.031298947106742</v>
       </c>
       <c r="M23">
-        <v>1.060423915280349</v>
+        <v>1.038640644213197</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.041230467017616</v>
+        <v>1.006151796773346</v>
       </c>
       <c r="D24">
-        <v>1.047558096221802</v>
+        <v>1.026040725331513</v>
       </c>
       <c r="E24">
-        <v>1.048884822473928</v>
+        <v>1.021454174357278</v>
       </c>
       <c r="F24">
-        <v>1.058017312593817</v>
+        <v>1.029294076345776</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041530409312178</v>
+        <v>1.046857613448685</v>
       </c>
       <c r="J24">
-        <v>1.047385048316495</v>
+        <v>1.033415077671865</v>
       </c>
       <c r="K24">
-        <v>1.050888313226366</v>
+        <v>1.039625465169633</v>
       </c>
       <c r="L24">
-        <v>1.052210527601054</v>
+        <v>1.035114722237553</v>
       </c>
       <c r="M24">
-        <v>1.061312297424724</v>
+        <v>1.042825569991583</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042667131082194</v>
+        <v>1.013259835026824</v>
       </c>
       <c r="D25">
-        <v>1.048658393413761</v>
+        <v>1.031235319773367</v>
       </c>
       <c r="E25">
-        <v>1.050140186920194</v>
+        <v>1.027207322964656</v>
       </c>
       <c r="F25">
-        <v>1.05936527385958</v>
+        <v>1.035452792197736</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041848728390912</v>
+        <v>1.048830291091992</v>
       </c>
       <c r="J25">
-        <v>1.048218906175671</v>
+        <v>1.037349047193174</v>
       </c>
       <c r="K25">
-        <v>1.051671053271618</v>
+        <v>1.043367353377712</v>
       </c>
       <c r="L25">
-        <v>1.053148320704818</v>
+        <v>1.0393974673293</v>
       </c>
       <c r="M25">
-        <v>1.062345540366932</v>
+        <v>1.047524594396271</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
